--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,13 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -123,7 +117,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -141,7 +135,7 @@
     </row>
     <row r="2" ht="13.8">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>7777</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -152,7 +146,7 @@
     </row>
     <row r="3" ht="13.8">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>8888</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -163,7 +157,7 @@
     </row>
     <row r="4" ht="13.8">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>9999</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -174,7 +168,7 @@
     </row>
     <row r="5" ht="13.8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>1111</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,7 +50,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,7 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,7 +50,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="11">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,7 +50,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,7 +50,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="20">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,7 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="20">
+  <numFmts count="22">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,7 +50,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="17">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>

--- a/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
+++ b/WebAplicationTestMVCSOL/WebAplicationTestMVC/Data/Taxonomy.xlsx
@@ -50,7 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="17">
+  <numFmts count="19">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
